--- a/Documents/QTDN/qtdn1.chot.xlsx
+++ b/Documents/QTDN/qtdn1.chot.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lap Trinh Windows\Elearning-Test\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lap Trinh Windows\Elearning-Test\Documents\QTDN\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="224">
   <si>
     <t>      Công ty hợp danh.*</t>
   </si>
@@ -398,9 +398,6 @@
     <t>      Định giá theo hệ số</t>
   </si>
   <si>
-    <t>      Chi phí sai hỏng bên trong</t>
-  </si>
-  <si>
     <t>      Sản phẩm phi vật chất</t>
   </si>
   <si>
@@ -518,12 +515,6 @@
     <t>      Xác định chi phí khấu hao hàng năm</t>
   </si>
   <si>
-    <t xml:space="preserve">             Dạng kiểm tra nào dưới đây không phù hợp để áp dụng trong quản trị doanh nghiệp??</t>
-  </si>
-  <si>
-    <t xml:space="preserve">             Đâu là đặc điểm của Cơ  Tổ chức Quản lý theo kiểu trực tuyến&gt;</t>
-  </si>
-  <si>
     <t xml:space="preserve">             Đâu là đặc điểm của Cơ cấu tổ chức Quản lý theo chức năng?</t>
   </si>
   <si>
@@ -533,9 +524,6 @@
     <t xml:space="preserve">              Quá trình sản xuất theo dự án là ………. Và phải đảm bảo về …….?</t>
   </si>
   <si>
-    <t xml:space="preserve">             Chuyển sản phẩm theo từng loạt sản xuất là đặc điểm của cách tổ chức sản xuất</t>
-  </si>
-  <si>
     <t xml:space="preserve">             Chi phí một đơn vị sản phẩm cao là đặc điểm của loại hình sản xuất:?</t>
   </si>
   <si>
@@ -699,6 +687,15 @@
   </si>
   <si>
     <t xml:space="preserve">      Mục tiêu nào dưới đây không được coi là mục tiêu kinh tế của doanh nghiệp?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Chuyển sản phẩm theo từng loạt sản xuất là đặc điểm của cách tổ chức sản xuất?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Dạng kiểm tra nào dưới đây không phù hợp để áp dụng trong quản trị doanh nghiệp?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Đâu là đặc điểm của Cơ  Tổ chức Quản lý theo kiểu trực tuyến?</t>
   </si>
 </sst>
 </file>
@@ -1037,9 +1034,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="A160" sqref="A160"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1048,7 +1043,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1068,12 +1063,12 @@
     </row>
     <row r="5" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1098,7 +1093,7 @@
     </row>
     <row r="11" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1113,7 +1108,7 @@
     </row>
     <row r="14" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1128,17 +1123,17 @@
     </row>
     <row r="17" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>164</v>
+        <v>222</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1158,12 +1153,12 @@
     </row>
     <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>165</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1183,12 +1178,12 @@
     </row>
     <row r="28" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1208,12 +1203,12 @@
     </row>
     <row r="33" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1233,12 +1228,12 @@
     </row>
     <row r="38" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1253,7 +1248,7 @@
     </row>
     <row r="42" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>169</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1273,12 +1268,12 @@
     </row>
     <row r="46" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1298,12 +1293,12 @@
     </row>
     <row r="51" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1323,12 +1318,12 @@
     </row>
     <row r="56" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="57" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="58" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1348,12 +1343,12 @@
     </row>
     <row r="61" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="62" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="63" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1373,12 +1368,12 @@
     </row>
     <row r="66" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1388,22 +1383,22 @@
     </row>
     <row r="69" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
     </row>
     <row r="71" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="73" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1423,12 +1418,12 @@
     </row>
     <row r="76" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="77" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1448,12 +1443,12 @@
     </row>
     <row r="81" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1478,7 +1473,7 @@
     </row>
     <row r="87" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="88" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1498,12 +1493,12 @@
     </row>
     <row r="91" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="92" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1523,12 +1518,12 @@
     </row>
     <row r="96" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="97" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="98" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1548,12 +1543,12 @@
     </row>
     <row r="101" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="102" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="103" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1573,12 +1568,12 @@
     </row>
     <row r="106" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
     </row>
     <row r="108" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1588,7 +1583,7 @@
     </row>
     <row r="109" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="110" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1598,37 +1593,37 @@
     </row>
     <row r="111" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="113" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="114" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="115" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="116" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="117" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
     </row>
     <row r="118" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1643,7 +1638,7 @@
     </row>
     <row r="120" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="121" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1663,12 +1658,12 @@
     </row>
     <row r="124" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="126" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1688,12 +1683,12 @@
     </row>
     <row r="129" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="131" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1713,12 +1708,12 @@
     </row>
     <row r="134" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="135" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="136" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1738,12 +1733,12 @@
     </row>
     <row r="139" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="140" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
     </row>
     <row r="141" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1758,22 +1753,22 @@
     </row>
     <row r="143" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="145" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="146" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="147" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1783,17 +1778,17 @@
     </row>
     <row r="148" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="149" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
     </row>
     <row r="151" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1813,12 +1808,12 @@
     </row>
     <row r="154" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
     <row r="156" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1838,12 +1833,12 @@
     </row>
     <row r="159" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="160" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="161" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1863,12 +1858,12 @@
     </row>
     <row r="164" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="165" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="166" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1888,12 +1883,12 @@
     </row>
     <row r="169" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="170" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="171" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1913,12 +1908,12 @@
     </row>
     <row r="174" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="175" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="176" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1938,7 +1933,7 @@
     </row>
     <row r="179" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="180" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1958,7 +1953,7 @@
     </row>
     <row r="183" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1978,7 +1973,7 @@
     </row>
     <row r="187" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="188" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -1998,7 +1993,7 @@
     </row>
     <row r="191" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="192" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -2018,12 +2013,12 @@
     </row>
     <row r="195" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="196" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="197" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -2043,7 +2038,7 @@
     </row>
     <row r="200" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
     </row>
     <row r="201" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -2058,12 +2053,12 @@
     </row>
     <row r="203" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
     </row>
     <row r="204" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="205" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -2078,17 +2073,17 @@
     </row>
     <row r="207" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="208" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="209" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="210" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -2103,7 +2098,7 @@
     </row>
     <row r="212" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="213" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -2123,17 +2118,17 @@
     </row>
     <row r="216" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="217" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="218" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="219" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -2143,17 +2138,17 @@
     </row>
     <row r="220" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="221" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="222" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="223" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -2168,17 +2163,17 @@
     </row>
     <row r="225" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="226" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="227" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="228" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
@@ -2193,12 +2188,12 @@
     </row>
     <row r="230" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="231" spans="1:1" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
